--- a/QRPH/CCG/StructureDefinition-ccg-data-in-ips-careplan.xlsx
+++ b/QRPH/CCG/StructureDefinition-ccg-data-in-ips-careplan.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-comment</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T16:28:52-05:00</t>
+    <t>2025-10-02T10:26:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -371,7 +371,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -506,7 +506,7 @@
     <t>CarePlan.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(PlanDefinition|Questionnaire|Measure|ActivityDefinition|OperationDefinition)
+    <t xml:space="preserve">canonical(PlanDefinition|4.0.1|Questionnaire|4.0.1|Measure|4.0.1|ActivityDefinition|4.0.1|OperationDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -544,7 +544,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1)
 </t>
   </si>
   <si>
@@ -677,7 +677,7 @@
     <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-category</t>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-category|4.0.1</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -718,7 +718,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1)
 </t>
   </si>
   <si>
@@ -743,7 +743,7 @@
     <t>CarePlan.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -832,7 +832,7 @@
     <t>CarePlan.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|Device|RelatedPerson|Organization|CareTeam)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|Device|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1|CareTeam|4.0.1)
 </t>
   </si>
   <si>
@@ -866,7 +866,7 @@
     <t>CarePlan.careTeam</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam)
+    <t xml:space="preserve">Reference(CareTeam|4.0.1)
 </t>
   </si>
   <si>
@@ -888,7 +888,7 @@
     <t>CarePlan.addresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition)
+    <t xml:space="preserve">Reference(Condition|4.0.1)
 </t>
   </si>
   <si>
@@ -919,7 +919,7 @@
     <t>CarePlan.supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -941,7 +941,7 @@
     <t>CarePlan.goal</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Goal)
+    <t xml:space="preserve">Reference(Goal|4.0.1)
 </t>
   </si>
   <si>
@@ -1046,7 +1046,7 @@
     <t>Identifies the results of the activity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-activity-outcome</t>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-activity-outcome|4.0.1</t>
   </si>
   <si>
     <t>CarePlan.activity.outcomeReference</t>
@@ -1098,7 +1098,7 @@
     <t>CarePlan.activity.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Appointment|CommunicationRequest|DeviceRequest|MedicationRequest|NutritionOrder|Task|ServiceRequest|VisionPrescription|RequestGroup)
+    <t xml:space="preserve">Reference(Appointment|4.0.1|CommunicationRequest|4.0.1|DeviceRequest|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|Task|4.0.1|ServiceRequest|4.0.1|VisionPrescription|4.0.1|RequestGroup|4.0.1)
 </t>
   </si>
   <si>
@@ -1170,7 +1170,7 @@
     <t>CarePlan.activity.detail.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(PlanDefinition|ActivityDefinition|Questionnaire|Measure|OperationDefinition)
+    <t xml:space="preserve">canonical(PlanDefinition|4.0.1|ActivityDefinition|4.0.1|Questionnaire|4.0.1|Measure|4.0.1|OperationDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -1221,7 +1221,7 @@
     <t>Detailed description of the type of activity; e.g. What lab test, what procedure, what kind of encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-code|4.0.1</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1248,7 +1248,7 @@
     <t>Identifies why a care plan activity is needed.  Can include any health condition codes as well as such concepts as "general wellness", prophylaxis, surgical preparation, etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+    <t>http://hl7.org/fhir/ValueSet/clinical-findings|4.0.1</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -1257,7 +1257,7 @@
     <t>CarePlan.activity.detail.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport|DocumentReference)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1|DocumentReference|4.0.1)
 </t>
   </si>
   <si>
@@ -1378,7 +1378,7 @@
     <t>CarePlan.activity.detail.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1403,7 +1403,7 @@
     <t>CarePlan.activity.detail.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|RelatedPerson|Patient|CareTeam|HealthcareService|Device)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|RelatedPerson|4.0.1|Patient|4.0.1|CareTeam|4.0.1|HealthcareService|4.0.1|Device|4.0.1)
 </t>
   </si>
   <si>
@@ -1429,7 +1429,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(Medication|Substance)</t>
+Reference(Medication|4.0.1|Substance|4.0.1)</t>
   </si>
   <si>
     <t>What is to be administered/supplied</t>
@@ -1441,7 +1441,7 @@
     <t>A product supplied or administered as part of a care plan activity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
   </si>
   <si>
     <t>.participation[typeCode=PRD].role</t>
@@ -1457,7 +1457,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1855,7 +1855,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="129.0390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="173.1796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1870,7 +1870,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="138.09375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="48.4453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.76953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
